--- a/10/Índice de percepción IPEC 2002 a 2021 - Mensual.xlsx
+++ b/10/Índice de percepción IPEC 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Serie</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6479,6 +6482,29 @@
         <v>37.4</v>
       </c>
     </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235">
+        <v>41.9</v>
+      </c>
+      <c r="C235">
+        <v>40.4</v>
+      </c>
+      <c r="D235">
+        <v>46.4</v>
+      </c>
+      <c r="E235">
+        <v>30.1</v>
+      </c>
+      <c r="F235">
+        <v>37.9</v>
+      </c>
+      <c r="G235">
+        <v>39.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/Índice de percepción IPEC 2002 a 2021 - Mensual.xlsx
+++ b/10/Índice de percepción IPEC 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>Serie</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6505,6 +6508,29 @@
         <v>39.3</v>
       </c>
     </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236">
+        <v>40.2</v>
+      </c>
+      <c r="C236">
+        <v>41.6</v>
+      </c>
+      <c r="D236">
+        <v>44.7</v>
+      </c>
+      <c r="E236">
+        <v>26.7</v>
+      </c>
+      <c r="F236">
+        <v>36.2</v>
+      </c>
+      <c r="G236">
+        <v>37.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/Índice de percepción IPEC 2002 a 2021 - Mensual.xlsx
+++ b/10/Índice de percepción IPEC 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Serie</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6531,6 +6534,29 @@
         <v>37.9</v>
       </c>
     </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237">
+        <v>36.2</v>
+      </c>
+      <c r="C237">
+        <v>35.6</v>
+      </c>
+      <c r="D237">
+        <v>38.5</v>
+      </c>
+      <c r="E237">
+        <v>26.1</v>
+      </c>
+      <c r="F237">
+        <v>34.8</v>
+      </c>
+      <c r="G237">
+        <v>34.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
